--- a/ESPN sports website/IPL/Gujarat Titans/Abhinav Manohar.xlsx
+++ b/ESPN sports website/IPL/Gujarat Titans/Abhinav Manohar.xlsx
@@ -445,31 +445,31 @@
         <v>Abhinav Manohar</v>
       </c>
       <c r="C2" t="str">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D2" t="str">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E2" t="str">
+        <v>4</v>
+      </c>
+      <c r="F2" t="str">
         <v>2</v>
       </c>
-      <c r="F2" t="str">
-        <v>0</v>
-      </c>
       <c r="G2" t="str">
-        <v>100.00</v>
+        <v>153.57</v>
       </c>
       <c r="H2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J2" t="str">
-        <v>April 17, 2022</v>
+        <v>April 14, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Titans won by 3 wickets (with 1 ball remaining)</v>
+        <v>Titans won by 37 runs</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Abhinav Manohar</v>
       </c>
       <c r="C3" t="str">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D3" t="str">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>153.57</v>
+        <v>166.66</v>
       </c>
       <c r="H3" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I3" t="str">
         <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>April 14, 2022</v>
+        <v>April 11, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Titans won by 37 runs</v>
+        <v>Sunrisers won by 8 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -550,31 +550,31 @@
         <v>Abhinav Manohar</v>
       </c>
       <c r="C5" t="str">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="str">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>214.28</v>
+        <v>100.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I5" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J5" t="str">
-        <v>March 28, 2022</v>
+        <v>April 17, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Titans won by 5 wickets (with 2 balls remaining)</v>
+        <v>Titans won by 3 wickets (with 1 ball remaining)</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Abhinav Manohar</v>
       </c>
       <c r="C6" t="str">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D6" t="str">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E6" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>166.66</v>
+        <v>214.28</v>
       </c>
       <c r="H6" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I6" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J6" t="str">
-        <v>April 11, 2022</v>
+        <v>March 28, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Sunrisers won by 8 wickets (with 5 balls remaining)</v>
+        <v>Titans won by 5 wickets (with 2 balls remaining)</v>
       </c>
     </row>
     <row r="7">
@@ -620,10 +620,10 @@
         <v>Abhinav Manohar</v>
       </c>
       <c r="C7" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="str">
         <v>0</v>
@@ -635,16 +635,16 @@
         <v>50.00</v>
       </c>
       <c r="H7" t="str">
-        <v>Delhi Capitals</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I7" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J7" t="str">
-        <v>April 02, 2022</v>
+        <v>April 23, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Titans won by 14 runs</v>
+        <v>Titans won by 8 runs</v>
       </c>
     </row>
     <row r="8">
@@ -655,10 +655,10 @@
         <v>Abhinav Manohar</v>
       </c>
       <c r="C8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
         <v>2</v>
-      </c>
-      <c r="D8" t="str">
-        <v>4</v>
       </c>
       <c r="E8" t="str">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>50.00</v>
       </c>
       <c r="H8" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I8" t="str">
-        <v>DY Patil</v>
+        <v>Pune</v>
       </c>
       <c r="J8" t="str">
-        <v>April 23, 2022</v>
+        <v>April 02, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Titans won by 8 runs</v>
+        <v>Titans won by 14 runs</v>
       </c>
     </row>
   </sheetData>
